--- a/Stage/SUIVIS_DES_OFFRES.xlsx
+++ b/Stage/SUIVIS_DES_OFFRES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Documents\M1\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB8DF23-E0BE-4043-85E3-21573E0DDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C87F3C-2E9E-4A5B-BA5A-14E040199479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{E9B502F8-5ED4-4C31-8E6F-1D58E8B00D00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9B502F8-5ED4-4C31-8E6F-1D58E8B00D00}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CANDIDATURE EN COURS</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>1er entretient</t>
+  </si>
+  <si>
+    <t>refus</t>
   </si>
 </sst>
 </file>
@@ -145,11 +148,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +490,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,23 +500,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -530,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -799,20 +802,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8ae131e0-64f2-439b-b2b9-19463eb3d863" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8ae131e0-64f2-439b-b2b9-19463eb3d863" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,14 +838,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F03E53E5-129C-4FC8-8DF1-34B86B9EF4CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B511EB13-A2E6-461F-BB16-85BC6EB2967B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -857,4 +852,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F03E53E5-129C-4FC8-8DF1-34B86B9EF4CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Stage/SUIVIS_DES_OFFRES.xlsx
+++ b/Stage/SUIVIS_DES_OFFRES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Documents\M1\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C87F3C-2E9E-4A5B-BA5A-14E040199479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FB143-ADDD-44A7-B8DE-EA2466C9357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9B502F8-5ED4-4C31-8E6F-1D58E8B00D00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>CANDIDATURE EN COURS</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Cash Flow Positif</t>
   </si>
   <si>
-    <t>2e entretien</t>
-  </si>
-  <si>
     <t>Cohabs</t>
   </si>
   <si>
@@ -65,10 +62,10 @@
     <t>Mansio</t>
   </si>
   <si>
-    <t>1er entretient</t>
-  </si>
-  <si>
     <t>refus</t>
+  </si>
+  <si>
+    <t>dernier entretient avec le ceo</t>
   </si>
 </sst>
 </file>
@@ -490,7 +487,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -525,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -533,23 +530,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -802,20 +799,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8ae131e0-64f2-439b-b2b9-19463eb3d863" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8ae131e0-64f2-439b-b2b9-19463eb3d863" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,6 +835,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F03E53E5-129C-4FC8-8DF1-34B86B9EF4CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B511EB13-A2E6-461F-BB16-85BC6EB2967B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -852,12 +857,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F03E53E5-129C-4FC8-8DF1-34B86B9EF4CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Stage/SUIVIS_DES_OFFRES.xlsx
+++ b/Stage/SUIVIS_DES_OFFRES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Documents\M1\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FB143-ADDD-44A7-B8DE-EA2466C9357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E47F7C0-4865-4225-80E4-428CE1FBFFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9B502F8-5ED4-4C31-8E6F-1D58E8B00D00}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{E9B502F8-5ED4-4C31-8E6F-1D58E8B00D00}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>CANDIDATURE EN COURS</t>
   </si>
@@ -65,7 +65,16 @@
     <t>refus</t>
   </si>
   <si>
-    <t>dernier entretient avec le ceo</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Lien vers l'offre</t>
+  </si>
+  <si>
+    <t>Poste</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -127,7 +136,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -143,13 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,74 +496,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727138CE-8944-4FA0-AC65-8719ADE0CBE9}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -799,20 +828,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8ae131e0-64f2-439b-b2b9-19463eb3d863" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8ae131e0-64f2-439b-b2b9-19463eb3d863" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,14 +864,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F03E53E5-129C-4FC8-8DF1-34B86B9EF4CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B511EB13-A2E6-461F-BB16-85BC6EB2967B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -857,4 +878,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F03E53E5-129C-4FC8-8DF1-34B86B9EF4CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>